--- a/tests/test_files/Checklists emergency.xlsx
+++ b/tests/test_files/Checklists emergency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aw6g15\University of Southampton\Adrian Weishaeupl - Documents\PhD\2019\AutoFLpy\AutoFLpy\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:20001_{7F5B8737-181D-49EA-95FB-407F0FCD510D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7D6A4156-0713-48C3-B42C-9FCCEAF30145}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:20001_{7F5B8737-181D-49EA-95FB-407F0FCD510D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{036F7472-B9D0-4DA9-927F-6B84877E70FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Approach with powder fire extingusher;</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>5.00</t>
@@ -113,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -146,15 +143,21 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -180,12 +183,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -208,17 +205,17 @@
   <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Emergency Checklist" dataDxfId="6"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Fire" dataDxfId="5"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Saftey and inspection" dataDxfId="4"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Flight Number" dataDxfId="2"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Flight Duration" dataDxfId="1"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Checklist (VERSION)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Emergency Checklist" dataDxfId="8"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Fire" dataDxfId="7"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Saftey and inspection" dataDxfId="6"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Flight Number" dataDxfId="4"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Flight Duration" dataDxfId="3"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Checklist (VERSION)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,117 +530,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>43772.65121527778</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>43802.651828703703</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>43759.654398148101</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>43759.654803240701</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -667,17 +664,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -687,8 +684,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D28EA33B1D374F90B741F2AF73533E" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3358440ca6a3098c284a1e565a0f249">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6e80eea-1699-4de5-969f-0d9eb2724e77" xmlns:ns3="4de5569b-e040-4e3a-896c-3d10ceee17bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb47b5338ca8491327e26f4cc584ed1f" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D28EA33B1D374F90B741F2AF73533E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f0338854bc56f50ac4daf9a6be0e17">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6e80eea-1699-4de5-969f-0d9eb2724e77" xmlns:ns3="4de5569b-e040-4e3a-896c-3d10ceee17bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88fb165263e20f462f96975fe477339d" ns2:_="" ns3:_="">
     <xsd:import namespace="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
     <xsd:import namespace="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
     <xsd:element name="properties">
@@ -706,6 +703,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -749,6 +747,13 @@
     <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -882,6 +887,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4de5569b-e040-4e3a-896c-3d10ceee17bb">
@@ -895,55 +909,31 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3834EE1D-8CFC-4607-96EB-E01033278426}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
-    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701FEE6E-2E32-4E9A-ADF1-DD2278C20D25}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC263F84-3C12-4CB9-B561-E45814456A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58D8165-7001-47E2-B2DB-E33FECDA23E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC263F84-3C12-4CB9-B561-E45814456A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_files/Checklists emergency.xlsx
+++ b/tests/test_files/Checklists emergency.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:20001_{7F5B8737-181D-49EA-95FB-407F0FCD510D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{036F7472-B9D0-4DA9-927F-6B84877E70FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -145,19 +145,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy/mm/dd\ h:mm:ss"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -183,6 +177,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -205,17 +205,17 @@
   <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Emergency Checklist" dataDxfId="8"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Fire" dataDxfId="7"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Saftey and inspection" dataDxfId="6"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Notes" dataDxfId="5"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Flight Number" dataDxfId="4"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Flight Duration" dataDxfId="3"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Checklist (VERSION)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Emergency Checklist" dataDxfId="6"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Fire" dataDxfId="5"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Saftey and inspection" dataDxfId="4"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Flight Number" dataDxfId="2"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Flight Duration" dataDxfId="1"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Checklist (VERSION)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -521,7 +521,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +684,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4de5569b-e040-4e3a-896c-3d10ceee17bb">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D28EA33B1D374F90B741F2AF73533E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f0338854bc56f50ac4daf9a6be0e17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6e80eea-1699-4de5-969f-0d9eb2724e77" xmlns:ns3="4de5569b-e040-4e3a-896c-3d10ceee17bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88fb165263e20f462f96975fe477339d" ns2:_="" ns3:_="">
     <xsd:import namespace="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
@@ -886,42 +909,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4de5569b-e040-4e3a-896c-3d10ceee17bb">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701FEE6E-2E32-4E9A-ADF1-DD2278C20D25}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58D8165-7001-47E2-B2DB-E33FECDA23E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC263F84-3C12-4CB9-B561-E45814456A2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
@@ -936,4 +924,31 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58D8165-7001-47E2-B2DB-E33FECDA23E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701FEE6E-2E32-4E9A-ADF1-DD2278C20D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>